--- a/Generating_Flight_Mission_Cycle/output_1.xlsx
+++ b/Generating_Flight_Mission_Cycle/output_1.xlsx
@@ -7261,9 +7261,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58C92E48-C0AE-4D21-9E20-8CE34565CC5D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40510BAF-2D75-49BF-891A-2ED09A19352C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E492244-8AE3-4B51-B5BF-2DF986EC24F7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36D7C58E-354A-4250-BA5B-4E07F3FE04B8}"/>
 </file>